--- a/data/brian_erly_cv_data.xlsx
+++ b/data/brian_erly_cv_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="201">
   <si>
     <t>Where in your CV this entry belongs</t>
   </si>
@@ -288,6 +288,21 @@
     <t>Implemented and successfully transitioned wastewater surveillance for SARS-CoV-2 across the state.</t>
   </si>
   <si>
+    <t>Medical Director</t>
+  </si>
+  <si>
+    <t>EDCare</t>
+  </si>
+  <si>
+    <t>Supervise medical staff across three states at an eating disorder partial hospitalization program, including APP and RNs.</t>
+  </si>
+  <si>
+    <t>Collaborate with diverse allied health professionals, including psychiatrists, therapists, dieticians, and mellieu managers to create a holistically supportive and healing environment for patients at the  program.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treat emergent and common health conditions occurring in eating disorder patients, including refeeding syndrome and long term consequences of malnutrition. </t>
+  </si>
+  <si>
     <t>additional_activities</t>
   </si>
   <si>
@@ -476,6 +491,24 @@
   </si>
   <si>
     <t>DOI: 10.2175/193864718825158303</t>
+  </si>
+  <si>
+    <t>But Not The Armadillo</t>
+  </si>
+  <si>
+    <t>The Drift</t>
+  </si>
+  <si>
+    <t>https://www.thedriftmag.com/mention/summer-2023/</t>
+  </si>
+  <si>
+    <t>Dog Park</t>
+  </si>
+  <si>
+    <t>New York Times</t>
+  </si>
+  <si>
+    <t>https://www.nytimes.com/2023/08/16/opinion/letters/donald-trump-thought-language.html</t>
   </si>
   <si>
     <t>Name of language</t>
@@ -593,7 +626,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -616,6 +649,10 @@
     <font>
       <u/>
       <color rgb="FF1155CC"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -672,7 +709,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -710,7 +747,10 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -732,13 +772,13 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1318,8 +1358,8 @@
       <c r="E17" s="6">
         <v>2020.0</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>61</v>
+      <c r="F17" s="6">
+        <v>2024.0</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>87</v>
@@ -1336,31 +1376,31 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>92</v>
-      </c>
       <c r="D18" s="10" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="E18" s="6">
-        <v>2021.0</v>
+        <v>2023.0</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>61</v>
       </c>
       <c r="G18" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I18" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="J18" s="6" t="b">
         <v>1</v>
@@ -1368,22 +1408,22 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="D19" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>33</v>
-      </c>
       <c r="E19" s="6">
-        <v>2011.0</v>
-      </c>
-      <c r="F19" s="6">
-        <v>2013.0</v>
+        <v>2021.0</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>99</v>
@@ -1391,59 +1431,61 @@
       <c r="H19" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="I19" s="9"/>
+      <c r="I19" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="J19" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>33</v>
       </c>
       <c r="E20" s="6">
-        <v>2012.0</v>
+        <v>2011.0</v>
       </c>
       <c r="F20" s="6">
-        <v>2014.0</v>
+        <v>2013.0</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="I20" s="7"/>
+        <v>105</v>
+      </c>
+      <c r="I20" s="9"/>
       <c r="J20" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D21" s="10" t="s">
         <v>107</v>
       </c>
+      <c r="D21" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="E21" s="6">
-        <v>2010.0</v>
+        <v>2012.0</v>
       </c>
       <c r="F21" s="6">
-        <v>2010.0</v>
+        <v>2014.0</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>108</v>
@@ -1451,29 +1493,29 @@
       <c r="H21" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="I21" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="J21" s="6"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>21</v>
-      </c>
       <c r="E22" s="6">
-        <v>2019.0</v>
+        <v>2010.0</v>
       </c>
       <c r="F22" s="6">
-        <v>2020.0</v>
+        <v>2010.0</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>113</v>
@@ -1481,14 +1523,14 @@
       <c r="H22" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="I22" s="7"/>
-      <c r="J22" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="I22" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="J22" s="6"/>
     </row>
     <row r="23">
       <c r="A23" s="6" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>116</v>
@@ -1496,26 +1538,35 @@
       <c r="C23" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D23" s="8"/>
+      <c r="D23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="6">
+        <v>2019.0</v>
+      </c>
       <c r="F23" s="6">
-        <v>2017.0</v>
-      </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
+        <v>2020.0</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>119</v>
+      </c>
       <c r="I23" s="7"/>
       <c r="J23" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D24" s="8"/>
       <c r="F24" s="6">
@@ -1530,17 +1581,17 @@
     </row>
     <row r="25">
       <c r="A25" s="6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D25" s="8"/>
       <c r="F25" s="6">
-        <v>2018.0</v>
+        <v>2017.0</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
@@ -1551,17 +1602,17 @@
     </row>
     <row r="26">
       <c r="A26" s="6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D26" s="8"/>
       <c r="F26" s="6">
-        <v>2019.0</v>
+        <v>2018.0</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -1572,34 +1623,34 @@
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D27" s="8"/>
       <c r="F27" s="6">
-        <v>2016.0</v>
+        <v>2019.0</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D28" s="8"/>
       <c r="F28" s="6">
@@ -1614,115 +1665,116 @@
     </row>
     <row r="29">
       <c r="A29" s="6" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>127</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D29" s="8"/>
       <c r="F29" s="6">
-        <v>2013.0</v>
+        <v>2016.0</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
-      <c r="I29" s="9"/>
+      <c r="I29" s="7"/>
       <c r="J29" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="6" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>129</v>
+        <v>131</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>132</v>
       </c>
       <c r="F30" s="6">
         <v>2013.0</v>
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
+      <c r="I30" s="9"/>
       <c r="J30" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="6" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F31" s="6">
-        <v>2014.0</v>
+        <v>2013.0</v>
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
-      <c r="I31" s="9"/>
+      <c r="I31" s="7"/>
       <c r="J31" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="6" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>133</v>
+        <v>135</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>136</v>
       </c>
       <c r="F32" s="6">
-        <v>2015.0</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>134</v>
-      </c>
+        <v>2014.0</v>
+      </c>
+      <c r="G32" s="7"/>
       <c r="H32" s="7"/>
       <c r="I32" s="9"/>
       <c r="J32" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="6" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>131</v>
+        <v>137</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>138</v>
       </c>
       <c r="F33" s="6">
         <v>2015.0</v>
       </c>
-      <c r="G33" s="7"/>
+      <c r="G33" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="H33" s="7"/>
       <c r="I33" s="9"/>
       <c r="J33" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="6" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B34" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>136</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>131</v>
       </c>
       <c r="F34" s="6">
         <v>2015.0</v>
@@ -1736,62 +1788,61 @@
     </row>
     <row r="35">
       <c r="A35" s="6" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>133</v>
+        <v>141</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>136</v>
       </c>
       <c r="F35" s="6">
         <v>2015.0</v>
       </c>
-      <c r="G35" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="H35" s="9"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
       <c r="I35" s="9"/>
       <c r="J35" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="6" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="F36" s="7">
-        <v>2019.0</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F36" s="6">
+        <v>2015.0</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>143</v>
       </c>
       <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
       <c r="J36" s="6" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="6" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F37" s="7">
         <v>2019.0</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="H37" s="9"/>
       <c r="J37" s="6" t="b">
@@ -1800,87 +1851,134 @@
     </row>
     <row r="38">
       <c r="A38" s="6" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F38" s="7">
-        <v>2018.0</v>
+        <v>2019.0</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="H38" s="12" t="s">
-        <v>147</v>
-      </c>
+      <c r="H38" s="9"/>
       <c r="J38" s="6" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="6" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F39" s="7">
-        <v>2022.0</v>
+        <v>2018.0</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="H39" s="9"/>
+        <v>151</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>152</v>
+      </c>
       <c r="J39" s="6" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="6" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="F40" s="7">
         <v>2022.0</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
+      <c r="J40" s="6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="41">
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="G41" s="7"/>
+      <c r="A41" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F41" s="7">
+        <v>2022.0</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>157</v>
+      </c>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
+      <c r="J41" s="6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="42">
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="G42" s="7"/>
+      <c r="A42" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F42" s="6">
+        <v>2023.0</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>160</v>
+      </c>
       <c r="H42" s="7"/>
       <c r="I42" s="9"/>
+      <c r="J42" s="6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="9"/>
+      <c r="A43" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F43" s="6">
+        <v>2023.0</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="H43" s="7"/>
       <c r="I43" s="9"/>
+      <c r="J43" s="6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="B44" s="7"/>
@@ -1900,14 +1998,14 @@
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
       <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
+      <c r="H46" s="9"/>
       <c r="I46" s="9"/>
     </row>
     <row r="47">
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="G47" s="7"/>
-      <c r="H47" s="9"/>
+      <c r="H47" s="7"/>
       <c r="I47" s="9"/>
     </row>
     <row r="48">
@@ -1935,7 +2033,7 @@
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
       <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
+      <c r="H51" s="9"/>
       <c r="I51" s="9"/>
     </row>
     <row r="52">
@@ -1962,15 +2060,15 @@
     <row r="55">
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
-      <c r="G55" s="13"/>
+      <c r="G55" s="7"/>
       <c r="H55" s="7"/>
       <c r="I55" s="9"/>
     </row>
     <row r="56">
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="7"/>
       <c r="I56" s="9"/>
     </row>
     <row r="57">
@@ -8637,11 +8735,20 @@
       <c r="H1008" s="9"/>
       <c r="I1008" s="9"/>
     </row>
+    <row r="1009">
+      <c r="B1009" s="9"/>
+      <c r="C1009" s="9"/>
+      <c r="G1009" s="9"/>
+      <c r="H1009" s="9"/>
+      <c r="I1009" s="9"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="H38"/>
+    <hyperlink r:id="rId1" ref="H39"/>
+    <hyperlink r:id="rId2" ref="G42"/>
+    <hyperlink r:id="rId3" ref="G43"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -8661,71 +8768,71 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
+        <v>165</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
     </row>
     <row r="2">
-      <c r="A2" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
+      <c r="A2" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="B3" s="6">
         <v>5.0</v>
@@ -8733,7 +8840,7 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="B4" s="6">
         <v>4.5</v>
@@ -8741,7 +8848,7 @@
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="B5" s="6">
         <v>4.0</v>
@@ -8749,7 +8856,7 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="B6" s="6">
         <v>3.5</v>
@@ -8757,7 +8864,7 @@
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="B7" s="6">
         <v>3.0</v>
@@ -8783,107 +8890,107 @@
   </cols>
   <sheetData>
     <row r="1" ht="33.0" customHeight="1">
-      <c r="A1" s="17" t="s">
-        <v>162</v>
+      <c r="A1" s="18" t="s">
+        <v>173</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
+        <v>174</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
     </row>
     <row r="2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
+      <c r="B2" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
     </row>
     <row r="3">
-      <c r="A3" s="20" t="s">
-        <v>165</v>
+      <c r="A3" s="21" t="s">
+        <v>176</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8">
@@ -11888,93 +11995,93 @@
   </cols>
   <sheetData>
     <row r="1" ht="36.75" customHeight="1">
-      <c r="A1" s="17" t="s">
-        <v>175</v>
+      <c r="A1" s="18" t="s">
+        <v>186</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
+        <v>188</v>
+      </c>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
     </row>
     <row r="2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>179</v>
+      <c r="B2" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>184</v>
+        <v>194</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>187</v>
+        <v>197</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>189</v>
+        <v>199</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
